--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel20/field_16ha_100ha_6%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel20/field_16ha_100ha_6%_6m_0_LM/Planilha_Unificada.xlsx
@@ -2327,28 +2327,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>299.481032599542</v>
+        <v>416.8759680360178</v>
       </c>
       <c r="AB2" t="n">
-        <v>409.7631609733845</v>
+        <v>570.3880907365996</v>
       </c>
       <c r="AC2" t="n">
-        <v>370.6559399962922</v>
+        <v>515.9510519014109</v>
       </c>
       <c r="AD2" t="n">
-        <v>299481.032599542</v>
+        <v>416875.9680360177</v>
       </c>
       <c r="AE2" t="n">
-        <v>409763.1609733845</v>
+        <v>570388.0907365995</v>
       </c>
       <c r="AF2" t="n">
         <v>6.443053585903514e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.34895833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>370655.9399962922</v>
+        <v>515951.0519014109</v>
       </c>
     </row>
     <row r="3">
@@ -2433,28 +2433,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>245.5557883922385</v>
+        <v>343.3736812880206</v>
       </c>
       <c r="AB3" t="n">
-        <v>335.9802628349215</v>
+        <v>469.8190193159563</v>
       </c>
       <c r="AC3" t="n">
-        <v>303.9147781013171</v>
+        <v>424.9801515075757</v>
       </c>
       <c r="AD3" t="n">
-        <v>245555.7883922385</v>
+        <v>343373.6812880206</v>
       </c>
       <c r="AE3" t="n">
-        <v>335980.2628349215</v>
+        <v>469819.0193159563</v>
       </c>
       <c r="AF3" t="n">
         <v>7.749757215290385e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.26041666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>303914.7781013171</v>
+        <v>424980.1515075756</v>
       </c>
     </row>
     <row r="4">
@@ -2539,28 +2539,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>230.9225935537897</v>
+        <v>318.986130598004</v>
       </c>
       <c r="AB4" t="n">
-        <v>315.9584800859716</v>
+        <v>436.4508965590726</v>
       </c>
       <c r="AC4" t="n">
-        <v>285.803846197172</v>
+        <v>394.7966355541545</v>
       </c>
       <c r="AD4" t="n">
-        <v>230922.5935537897</v>
+        <v>318986.130598004</v>
       </c>
       <c r="AE4" t="n">
-        <v>315958.4800859716</v>
+        <v>436450.8965590726</v>
       </c>
       <c r="AF4" t="n">
         <v>8.251079146439317e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>19.01041666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>285803.8461971721</v>
+        <v>394796.6355541545</v>
       </c>
     </row>
     <row r="5">
@@ -2645,28 +2645,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>218.092384823066</v>
+        <v>306.1217564484994</v>
       </c>
       <c r="AB5" t="n">
-        <v>298.4036224717435</v>
+        <v>418.8492923115876</v>
       </c>
       <c r="AC5" t="n">
-        <v>269.9243995552429</v>
+        <v>378.8749037120427</v>
       </c>
       <c r="AD5" t="n">
-        <v>218092.384823066</v>
+        <v>306121.7564484994</v>
       </c>
       <c r="AE5" t="n">
-        <v>298403.6224717434</v>
+        <v>418849.2923115876</v>
       </c>
       <c r="AF5" t="n">
         <v>8.527354661273016e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>18.41145833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>269924.3995552429</v>
+        <v>378874.9037120427</v>
       </c>
     </row>
     <row r="6">
@@ -2751,28 +2751,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>216.2869926314395</v>
+        <v>304.3163642568729</v>
       </c>
       <c r="AB6" t="n">
-        <v>295.9334052268791</v>
+        <v>416.379075066722</v>
       </c>
       <c r="AC6" t="n">
-        <v>267.6899363772559</v>
+        <v>376.6404405340555</v>
       </c>
       <c r="AD6" t="n">
-        <v>216286.9926314395</v>
+        <v>304316.3642568729</v>
       </c>
       <c r="AE6" t="n">
-        <v>295933.4052268791</v>
+        <v>416379.075066722</v>
       </c>
       <c r="AF6" t="n">
         <v>8.6494004548023e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>18.15104166666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>267689.9363772559</v>
+        <v>376640.4405340555</v>
       </c>
     </row>
     <row r="7">
@@ -2857,28 +2857,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>205.6163623429646</v>
+        <v>303.4332442088891</v>
       </c>
       <c r="AB7" t="n">
-        <v>281.333378111211</v>
+        <v>415.1707512565637</v>
       </c>
       <c r="AC7" t="n">
-        <v>254.4833153582358</v>
+        <v>375.5474374524455</v>
       </c>
       <c r="AD7" t="n">
-        <v>205616.3623429646</v>
+        <v>303433.244208889</v>
       </c>
       <c r="AE7" t="n">
-        <v>281333.378111211</v>
+        <v>415170.7512565637</v>
       </c>
       <c r="AF7" t="n">
         <v>8.747760323957753e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>18</v>
+        <v>17.94270833333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>254483.3153582358</v>
+        <v>375547.4374524455</v>
       </c>
     </row>
   </sheetData>
@@ -3154,28 +3154,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>254.1959108032729</v>
+        <v>360.6819514544653</v>
       </c>
       <c r="AB2" t="n">
-        <v>347.8020594929915</v>
+        <v>493.5009581446743</v>
       </c>
       <c r="AC2" t="n">
-        <v>314.6083190783406</v>
+        <v>446.4019193322908</v>
       </c>
       <c r="AD2" t="n">
-        <v>254195.9108032729</v>
+        <v>360681.9514544653</v>
       </c>
       <c r="AE2" t="n">
-        <v>347802.0594929915</v>
+        <v>493500.9581446743</v>
       </c>
       <c r="AF2" t="n">
         <v>7.946619929955148e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.61458333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>314608.3190783405</v>
+        <v>446401.9193322908</v>
       </c>
     </row>
     <row r="3">
@@ -3260,28 +3260,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>216.0275874579218</v>
+        <v>312.7989135402248</v>
       </c>
       <c r="AB3" t="n">
-        <v>295.5784756243238</v>
+        <v>427.9852732198672</v>
       </c>
       <c r="AC3" t="n">
-        <v>267.3688807578216</v>
+        <v>387.1389594248658</v>
       </c>
       <c r="AD3" t="n">
-        <v>216027.5874579218</v>
+        <v>312798.9135402248</v>
       </c>
       <c r="AE3" t="n">
-        <v>295578.4756243238</v>
+        <v>427985.2732198671</v>
       </c>
       <c r="AF3" t="n">
         <v>9.118677456096564e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.828125</v>
       </c>
       <c r="AH3" t="n">
-        <v>267368.8807578215</v>
+        <v>387138.9594248658</v>
       </c>
     </row>
     <row r="4">
@@ -3366,28 +3366,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>202.3815841665069</v>
+        <v>299.118744830029</v>
       </c>
       <c r="AB4" t="n">
-        <v>276.9074119018425</v>
+        <v>409.2674628641284</v>
       </c>
       <c r="AC4" t="n">
-        <v>250.4797571520054</v>
+        <v>370.2075506188669</v>
       </c>
       <c r="AD4" t="n">
-        <v>202381.5841665069</v>
+        <v>299118.744830029</v>
       </c>
       <c r="AE4" t="n">
-        <v>276907.4119018425</v>
+        <v>409267.4628641284</v>
       </c>
       <c r="AF4" t="n">
         <v>9.599093766114018e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.890625</v>
       </c>
       <c r="AH4" t="n">
-        <v>250479.7571520054</v>
+        <v>370207.5506188669</v>
       </c>
     </row>
     <row r="5">
@@ -3472,28 +3472,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>200.90208812815</v>
+        <v>288.0270304791255</v>
       </c>
       <c r="AB5" t="n">
-        <v>274.883100151405</v>
+        <v>394.0912899573206</v>
       </c>
       <c r="AC5" t="n">
-        <v>248.6486428738896</v>
+        <v>356.4797703543923</v>
       </c>
       <c r="AD5" t="n">
-        <v>200902.08812815</v>
+        <v>288027.0304791255</v>
       </c>
       <c r="AE5" t="n">
-        <v>274883.100151405</v>
+        <v>394091.2899573206</v>
       </c>
       <c r="AF5" t="n">
         <v>9.731711089304836e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17.65625</v>
       </c>
       <c r="AH5" t="n">
-        <v>248648.6428738896</v>
+        <v>356479.7703543923</v>
       </c>
     </row>
   </sheetData>
@@ -3769,28 +3769,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>188.34159581945</v>
+        <v>272.4394462505057</v>
       </c>
       <c r="AB2" t="n">
-        <v>257.697280444838</v>
+        <v>372.7636695400404</v>
       </c>
       <c r="AC2" t="n">
-        <v>233.1030136796625</v>
+        <v>337.1876280962343</v>
       </c>
       <c r="AD2" t="n">
-        <v>188341.59581945</v>
+        <v>272439.4462505057</v>
       </c>
       <c r="AE2" t="n">
-        <v>257697.280444838</v>
+        <v>372763.6695400404</v>
       </c>
       <c r="AF2" t="n">
         <v>1.387164773606827e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.29166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>233103.0136796625</v>
+        <v>337187.6280962343</v>
       </c>
     </row>
     <row r="3">
@@ -3875,28 +3875,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>187.7527728990601</v>
+        <v>262.563472427951</v>
       </c>
       <c r="AB3" t="n">
-        <v>256.8916269481272</v>
+        <v>359.2509264588059</v>
       </c>
       <c r="AC3" t="n">
-        <v>232.3742506219357</v>
+        <v>324.9645222494188</v>
       </c>
       <c r="AD3" t="n">
-        <v>187752.7728990602</v>
+        <v>262563.4724279509</v>
       </c>
       <c r="AE3" t="n">
-        <v>256891.6269481271</v>
+        <v>359250.9264588059</v>
       </c>
       <c r="AF3" t="n">
         <v>1.403318892487539e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.08333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>232374.2506219357</v>
+        <v>324964.5222494188</v>
       </c>
     </row>
   </sheetData>
@@ -4172,28 +4172,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>207.9151633642676</v>
+        <v>302.7066992302782</v>
       </c>
       <c r="AB2" t="n">
-        <v>284.4786990844996</v>
+        <v>414.1766603639261</v>
       </c>
       <c r="AC2" t="n">
-        <v>257.3284513123205</v>
+        <v>374.6482211993859</v>
       </c>
       <c r="AD2" t="n">
-        <v>207915.1633642676</v>
+        <v>302706.6992302782</v>
       </c>
       <c r="AE2" t="n">
-        <v>284478.6990844996</v>
+        <v>414176.6603639261</v>
       </c>
       <c r="AF2" t="n">
         <v>1.097418897618974e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.90625</v>
       </c>
       <c r="AH2" t="n">
-        <v>257328.4513123205</v>
+        <v>374648.2211993859</v>
       </c>
     </row>
     <row r="3">
@@ -4278,28 +4278,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>192.1957606359707</v>
+        <v>268.0231672748806</v>
       </c>
       <c r="AB3" t="n">
-        <v>262.9707187805504</v>
+        <v>366.7211218131123</v>
       </c>
       <c r="AC3" t="n">
-        <v>237.8731624619334</v>
+        <v>331.7217726435952</v>
       </c>
       <c r="AD3" t="n">
-        <v>192195.7606359707</v>
+        <v>268023.1672748806</v>
       </c>
       <c r="AE3" t="n">
-        <v>262970.7187805505</v>
+        <v>366721.1218131123</v>
       </c>
       <c r="AF3" t="n">
         <v>1.216668036581442e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.05729166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>237873.1624619334</v>
+        <v>331721.7726435952</v>
       </c>
     </row>
   </sheetData>
@@ -4575,28 +4575,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>184.0741343647016</v>
+        <v>267.2338378588132</v>
       </c>
       <c r="AB2" t="n">
-        <v>251.8583514153421</v>
+        <v>365.6411264832927</v>
       </c>
       <c r="AC2" t="n">
-        <v>227.8213438417515</v>
+        <v>330.7448505522706</v>
       </c>
       <c r="AD2" t="n">
-        <v>184074.1343647016</v>
+        <v>267233.8378588132</v>
       </c>
       <c r="AE2" t="n">
-        <v>251858.3514153421</v>
+        <v>365641.1264832927</v>
       </c>
       <c r="AF2" t="n">
         <v>1.590737335525372e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.265625</v>
       </c>
       <c r="AH2" t="n">
-        <v>227821.3438417515</v>
+        <v>330744.8505522706</v>
       </c>
     </row>
   </sheetData>
@@ -4872,28 +4872,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>268.5304683894726</v>
+        <v>384.9019621301277</v>
       </c>
       <c r="AB2" t="n">
-        <v>367.4152335786426</v>
+        <v>526.6398452625749</v>
       </c>
       <c r="AC2" t="n">
-        <v>332.3496393564153</v>
+        <v>476.3780775743791</v>
       </c>
       <c r="AD2" t="n">
-        <v>268530.4683894726</v>
+        <v>384901.9621301278</v>
       </c>
       <c r="AE2" t="n">
-        <v>367415.2335786427</v>
+        <v>526639.845262575</v>
       </c>
       <c r="AF2" t="n">
         <v>7.459978009447846e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.47395833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>332349.6393564153</v>
+        <v>476378.0775743791</v>
       </c>
     </row>
     <row r="3">
@@ -4978,28 +4978,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>227.5028536054856</v>
+        <v>314.8500575060056</v>
       </c>
       <c r="AB3" t="n">
-        <v>311.2794410204255</v>
+        <v>430.7917388839337</v>
       </c>
       <c r="AC3" t="n">
-        <v>281.5713680529677</v>
+        <v>389.6775799448532</v>
       </c>
       <c r="AD3" t="n">
-        <v>227502.8536054856</v>
+        <v>314850.0575060056</v>
       </c>
       <c r="AE3" t="n">
-        <v>311279.4410204255</v>
+        <v>430791.7388839337</v>
       </c>
       <c r="AF3" t="n">
         <v>8.809779504821227e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.01041666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>281571.3680529676</v>
+        <v>389677.5799448532</v>
       </c>
     </row>
     <row r="4">
@@ -5084,28 +5084,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>214.4878856960285</v>
+        <v>301.8009241777676</v>
       </c>
       <c r="AB4" t="n">
-        <v>293.4717877468547</v>
+        <v>412.9373389771059</v>
       </c>
       <c r="AC4" t="n">
-        <v>265.4632522146224</v>
+        <v>373.5271789063254</v>
       </c>
       <c r="AD4" t="n">
-        <v>214487.8856960285</v>
+        <v>301800.9241777676</v>
       </c>
       <c r="AE4" t="n">
-        <v>293471.7877468547</v>
+        <v>412937.3389771059</v>
       </c>
       <c r="AF4" t="n">
         <v>9.212306720723993e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.203125</v>
       </c>
       <c r="AH4" t="n">
-        <v>265463.2522146224</v>
+        <v>373527.1789063254</v>
       </c>
     </row>
     <row r="5">
@@ -5190,28 +5190,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>202.2194694780016</v>
+        <v>289.599827767445</v>
       </c>
       <c r="AB5" t="n">
-        <v>276.6855994330343</v>
+        <v>396.2432605941185</v>
       </c>
       <c r="AC5" t="n">
-        <v>250.2791141539044</v>
+        <v>358.4263599339241</v>
       </c>
       <c r="AD5" t="n">
-        <v>202219.4694780016</v>
+        <v>289599.827767445</v>
       </c>
       <c r="AE5" t="n">
-        <v>276685.5994330343</v>
+        <v>396243.2605941185</v>
       </c>
       <c r="AF5" t="n">
         <v>9.420938732547617e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17.78645833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>250279.1141539044</v>
+        <v>358426.359933924</v>
       </c>
     </row>
     <row r="6">
@@ -5296,28 +5296,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>202.4366283699399</v>
+        <v>299.4575845206484</v>
       </c>
       <c r="AB6" t="n">
-        <v>276.9827258093582</v>
+        <v>409.731078277386</v>
       </c>
       <c r="AC6" t="n">
-        <v>250.5478832058916</v>
+        <v>370.6269192277716</v>
       </c>
       <c r="AD6" t="n">
-        <v>202436.6283699399</v>
+        <v>299457.5845206484</v>
       </c>
       <c r="AE6" t="n">
-        <v>276982.7258093582</v>
+        <v>409731.078277386</v>
       </c>
       <c r="AF6" t="n">
         <v>9.38618818153443e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>18</v>
+        <v>17.86458333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>250547.8832058916</v>
+        <v>370626.9192277716</v>
       </c>
     </row>
   </sheetData>
@@ -5593,28 +5593,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>182.0837202320113</v>
+        <v>264.7893855001701</v>
       </c>
       <c r="AB2" t="n">
-        <v>249.1349789881224</v>
+        <v>362.2965189245702</v>
       </c>
       <c r="AC2" t="n">
-        <v>225.3578862567076</v>
+        <v>327.7194476447663</v>
       </c>
       <c r="AD2" t="n">
-        <v>182083.7202320113</v>
+        <v>264789.3855001701</v>
       </c>
       <c r="AE2" t="n">
-        <v>249134.9789881224</v>
+        <v>362296.5189245702</v>
       </c>
       <c r="AF2" t="n">
         <v>1.713347033934318e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.52604166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>225357.8862567076</v>
+        <v>327719.4476447663</v>
       </c>
     </row>
   </sheetData>
@@ -5890,28 +5890,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>235.8210347159481</v>
+        <v>331.6381527441771</v>
       </c>
       <c r="AB2" t="n">
-        <v>322.6607433880056</v>
+        <v>453.7619514272901</v>
       </c>
       <c r="AC2" t="n">
-        <v>291.8664548963477</v>
+        <v>410.4555476419674</v>
       </c>
       <c r="AD2" t="n">
-        <v>235821.0347159481</v>
+        <v>331638.1527441771</v>
       </c>
       <c r="AE2" t="n">
-        <v>322660.7433880056</v>
+        <v>453761.9514272901</v>
       </c>
       <c r="AF2" t="n">
         <v>9.225772192358268e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.234375</v>
       </c>
       <c r="AH2" t="n">
-        <v>291866.4548963477</v>
+        <v>410455.5476419674</v>
       </c>
     </row>
     <row r="3">
@@ -5996,28 +5996,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>199.1612315265893</v>
+        <v>294.9773385249606</v>
       </c>
       <c r="AB3" t="n">
-        <v>272.5011833479778</v>
+        <v>403.6010080515825</v>
       </c>
       <c r="AC3" t="n">
-        <v>246.4940528671396</v>
+        <v>365.0818943007111</v>
       </c>
       <c r="AD3" t="n">
-        <v>199161.2315265893</v>
+        <v>294977.3385249606</v>
       </c>
       <c r="AE3" t="n">
-        <v>272501.1833479778</v>
+        <v>403601.0080515825</v>
       </c>
       <c r="AF3" t="n">
         <v>1.045253837790973e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.86458333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>246494.0528671396</v>
+        <v>365081.8943007111</v>
       </c>
     </row>
     <row r="4">
@@ -6102,28 +6102,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>196.8728595972544</v>
+        <v>283.067368423109</v>
       </c>
       <c r="AB4" t="n">
-        <v>269.370131918419</v>
+        <v>387.3052615274312</v>
       </c>
       <c r="AC4" t="n">
-        <v>243.6618245915585</v>
+        <v>350.341390953601</v>
       </c>
       <c r="AD4" t="n">
-        <v>196872.8595972544</v>
+        <v>283067.368423109</v>
       </c>
       <c r="AE4" t="n">
-        <v>269370.131918419</v>
+        <v>387305.2615274313</v>
       </c>
       <c r="AF4" t="n">
         <v>1.073413241640988e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.39583333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>243661.8245915585</v>
+        <v>350341.390953601</v>
       </c>
     </row>
   </sheetData>
@@ -6399,28 +6399,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>240.865553075734</v>
+        <v>346.9933824246856</v>
       </c>
       <c r="AB2" t="n">
-        <v>329.5628759563046</v>
+        <v>474.7716541010851</v>
       </c>
       <c r="AC2" t="n">
-        <v>298.1098576195343</v>
+        <v>429.4601137798784</v>
       </c>
       <c r="AD2" t="n">
-        <v>240865.553075734</v>
+        <v>346993.3824246856</v>
       </c>
       <c r="AE2" t="n">
-        <v>329562.8759563046</v>
+        <v>474771.654101085</v>
       </c>
       <c r="AF2" t="n">
         <v>8.397371318454677e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.98958333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>298109.8576195343</v>
+        <v>429460.1137798784</v>
       </c>
     </row>
     <row r="3">
@@ -6505,28 +6505,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>214.5206656682128</v>
+        <v>310.9974045837341</v>
       </c>
       <c r="AB3" t="n">
-        <v>293.5166387509475</v>
+        <v>425.5203691886305</v>
       </c>
       <c r="AC3" t="n">
-        <v>265.5038227018334</v>
+        <v>384.9093023748558</v>
       </c>
       <c r="AD3" t="n">
-        <v>214520.6656682128</v>
+        <v>310997.4045837341</v>
       </c>
       <c r="AE3" t="n">
-        <v>293516.6387509475</v>
+        <v>425520.3691886305</v>
       </c>
       <c r="AF3" t="n">
         <v>9.397827091300189e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.75</v>
       </c>
       <c r="AH3" t="n">
-        <v>265503.8227018334</v>
+        <v>384909.3023748558</v>
       </c>
     </row>
     <row r="4">
@@ -6611,28 +6611,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>200.1473410060075</v>
+        <v>287.0071549068794</v>
       </c>
       <c r="AB4" t="n">
-        <v>273.850421841797</v>
+        <v>392.6958512056386</v>
       </c>
       <c r="AC4" t="n">
-        <v>247.7145219327771</v>
+        <v>355.2175103186603</v>
       </c>
       <c r="AD4" t="n">
-        <v>200147.3410060075</v>
+        <v>287007.1549068794</v>
       </c>
       <c r="AE4" t="n">
-        <v>273850.421841797</v>
+        <v>392695.8512056386</v>
       </c>
       <c r="AF4" t="n">
         <v>9.960629997139473e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.70833333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>247714.5219327771</v>
+        <v>355217.5103186604</v>
       </c>
     </row>
     <row r="5">
@@ -6717,28 +6717,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>199.1558281485026</v>
+        <v>285.9141568228894</v>
       </c>
       <c r="AB5" t="n">
-        <v>272.4937902076995</v>
+        <v>391.2003630074511</v>
       </c>
       <c r="AC5" t="n">
-        <v>246.487365317793</v>
+        <v>353.864749415177</v>
       </c>
       <c r="AD5" t="n">
-        <v>199155.8281485026</v>
+        <v>285914.1568228893</v>
       </c>
       <c r="AE5" t="n">
-        <v>272493.7902076995</v>
+        <v>391200.3630074511</v>
       </c>
       <c r="AF5" t="n">
         <v>1.011319256475965e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17.421875</v>
       </c>
       <c r="AH5" t="n">
-        <v>246487.365317793</v>
+        <v>353864.749415177</v>
       </c>
     </row>
   </sheetData>
@@ -7014,28 +7014,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>285.8201753947293</v>
+        <v>402.9741951159837</v>
       </c>
       <c r="AB2" t="n">
-        <v>391.0717734712746</v>
+        <v>551.3670717244725</v>
       </c>
       <c r="AC2" t="n">
-        <v>353.7484322838567</v>
+        <v>498.7453722476334</v>
       </c>
       <c r="AD2" t="n">
-        <v>285820.1753947294</v>
+        <v>402974.1951159837</v>
       </c>
       <c r="AE2" t="n">
-        <v>391071.7734712746</v>
+        <v>551367.0717244725</v>
       </c>
       <c r="AF2" t="n">
         <v>6.75341618823845e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.72395833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>353748.4322838567</v>
+        <v>498745.3722476335</v>
       </c>
     </row>
     <row r="3">
@@ -7120,28 +7120,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>233.0517294350144</v>
+        <v>340.3745833419388</v>
       </c>
       <c r="AB3" t="n">
-        <v>318.8716577295077</v>
+        <v>465.7155211952638</v>
       </c>
       <c r="AC3" t="n">
-        <v>288.4389942550804</v>
+        <v>421.2682854882264</v>
       </c>
       <c r="AD3" t="n">
-        <v>233051.7294350144</v>
+        <v>340374.5833419389</v>
       </c>
       <c r="AE3" t="n">
-        <v>318871.6577295077</v>
+        <v>465715.5211952638</v>
       </c>
       <c r="AF3" t="n">
         <v>8.067070973895126e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.86979166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>288438.9942550805</v>
+        <v>421268.2854882263</v>
       </c>
     </row>
     <row r="4">
@@ -7226,28 +7226,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>218.3806206836318</v>
+        <v>315.9748050325656</v>
       </c>
       <c r="AB4" t="n">
-        <v>298.797999492238</v>
+        <v>432.3306680701319</v>
       </c>
       <c r="AC4" t="n">
-        <v>270.2811377864132</v>
+        <v>391.0696358894213</v>
       </c>
       <c r="AD4" t="n">
-        <v>218380.6206836318</v>
+        <v>315974.8050325656</v>
       </c>
       <c r="AE4" t="n">
-        <v>298797.999492238</v>
+        <v>432330.6680701319</v>
       </c>
       <c r="AF4" t="n">
         <v>8.616898569428055e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.59375</v>
       </c>
       <c r="AH4" t="n">
-        <v>270281.1377864133</v>
+        <v>391069.6358894213</v>
       </c>
     </row>
     <row r="5">
@@ -7332,28 +7332,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>215.8781062782839</v>
+        <v>303.6763012615228</v>
       </c>
       <c r="AB5" t="n">
-        <v>295.3739488796991</v>
+        <v>415.5033126388976</v>
       </c>
       <c r="AC5" t="n">
-        <v>267.1838737586487</v>
+        <v>375.8482596432024</v>
       </c>
       <c r="AD5" t="n">
-        <v>215878.1062782839</v>
+        <v>303676.3012615229</v>
       </c>
       <c r="AE5" t="n">
-        <v>295373.9488796991</v>
+        <v>415503.3126388976</v>
       </c>
       <c r="AF5" t="n">
         <v>8.84572677307476e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>18.125</v>
       </c>
       <c r="AH5" t="n">
-        <v>267183.8737586487</v>
+        <v>375848.2596432024</v>
       </c>
     </row>
     <row r="6">
@@ -7438,28 +7438,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>204.8880448372878</v>
+        <v>302.4480637674406</v>
       </c>
       <c r="AB6" t="n">
-        <v>280.3368619688438</v>
+        <v>413.8227839134804</v>
       </c>
       <c r="AC6" t="n">
-        <v>253.5819053178766</v>
+        <v>374.328118220702</v>
       </c>
       <c r="AD6" t="n">
-        <v>204888.0448372878</v>
+        <v>302448.0637674406</v>
       </c>
       <c r="AE6" t="n">
-        <v>280336.8619688438</v>
+        <v>413822.7839134804</v>
       </c>
       <c r="AF6" t="n">
         <v>8.908732979187755e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>18</v>
+        <v>17.99479166666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>253581.9053178766</v>
+        <v>374328.118220702</v>
       </c>
     </row>
     <row r="7">
@@ -7544,28 +7544,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>205.0545821671171</v>
+        <v>302.61460109727</v>
       </c>
       <c r="AB7" t="n">
-        <v>280.5647256906246</v>
+        <v>414.0506476352613</v>
       </c>
       <c r="AC7" t="n">
-        <v>253.7880220458595</v>
+        <v>374.5342349486849</v>
       </c>
       <c r="AD7" t="n">
-        <v>205054.5821671171</v>
+        <v>302614.60109727</v>
       </c>
       <c r="AE7" t="n">
-        <v>280564.7256906246</v>
+        <v>414050.6476352613</v>
       </c>
       <c r="AF7" t="n">
         <v>8.90331838334992e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>18</v>
+        <v>17.99479166666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>253788.0220458595</v>
+        <v>374534.2349486849</v>
       </c>
     </row>
   </sheetData>
@@ -7841,28 +7841,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>221.026234741624</v>
+        <v>316.2236546336875</v>
       </c>
       <c r="AB2" t="n">
-        <v>302.4178453626361</v>
+        <v>432.6711550728563</v>
       </c>
       <c r="AC2" t="n">
-        <v>273.5555106474272</v>
+        <v>391.3776272904822</v>
       </c>
       <c r="AD2" t="n">
-        <v>221026.234741624</v>
+        <v>316223.6546336875</v>
       </c>
       <c r="AE2" t="n">
-        <v>302417.8453626361</v>
+        <v>432671.1550728563</v>
       </c>
       <c r="AF2" t="n">
         <v>1.021910595841875e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.55729166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>273555.5106474272</v>
+        <v>391377.6272904822</v>
       </c>
     </row>
     <row r="3">
@@ -7947,28 +7947,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>193.941956768759</v>
+        <v>279.5181494451306</v>
       </c>
       <c r="AB3" t="n">
-        <v>265.3599413661664</v>
+        <v>382.4490635412708</v>
       </c>
       <c r="AC3" t="n">
-        <v>240.0343609972739</v>
+        <v>345.948661687523</v>
       </c>
       <c r="AD3" t="n">
-        <v>193941.9567687589</v>
+        <v>279518.1494451306</v>
       </c>
       <c r="AE3" t="n">
-        <v>265359.9413661664</v>
+        <v>382449.0635412708</v>
       </c>
       <c r="AF3" t="n">
         <v>1.164168834989808e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.16145833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>240034.3609972739</v>
+        <v>345948.6616875231</v>
       </c>
     </row>
     <row r="4">
@@ -8053,28 +8053,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>193.868607951366</v>
+        <v>279.4448006277377</v>
       </c>
       <c r="AB4" t="n">
-        <v>265.259582278288</v>
+        <v>382.3487044533924</v>
       </c>
       <c r="AC4" t="n">
-        <v>239.9435800398877</v>
+        <v>345.8578807301369</v>
       </c>
       <c r="AD4" t="n">
-        <v>193868.607951366</v>
+        <v>279444.8006277377</v>
       </c>
       <c r="AE4" t="n">
-        <v>265259.582278288</v>
+        <v>382348.7044533924</v>
       </c>
       <c r="AF4" t="n">
         <v>1.164360599034815e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.16145833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>239943.5800398877</v>
+        <v>345857.8807301369</v>
       </c>
     </row>
   </sheetData>
@@ -8350,28 +8350,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>191.7090604156275</v>
+        <v>276.3174607334511</v>
       </c>
       <c r="AB2" t="n">
-        <v>262.3047940673788</v>
+        <v>378.0697400415307</v>
       </c>
       <c r="AC2" t="n">
-        <v>237.2707926687554</v>
+        <v>341.987294676179</v>
       </c>
       <c r="AD2" t="n">
-        <v>191709.0604156275</v>
+        <v>276317.4607334511</v>
       </c>
       <c r="AE2" t="n">
-        <v>262304.7940673788</v>
+        <v>378069.7400415307</v>
       </c>
       <c r="AF2" t="n">
         <v>1.275037069361017e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.8125</v>
       </c>
       <c r="AH2" t="n">
-        <v>237270.7926687554</v>
+        <v>341987.294676179</v>
       </c>
     </row>
     <row r="3">
@@ -8456,28 +8456,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>189.3033894240004</v>
+        <v>264.4777019842536</v>
       </c>
       <c r="AB3" t="n">
-        <v>259.0132488859224</v>
+        <v>361.870059787587</v>
       </c>
       <c r="AC3" t="n">
-        <v>234.2933879397035</v>
+        <v>327.3336891692776</v>
       </c>
       <c r="AD3" t="n">
-        <v>189303.3894240004</v>
+        <v>264477.7019842536</v>
       </c>
       <c r="AE3" t="n">
-        <v>259013.2488859224</v>
+        <v>361870.059787587</v>
       </c>
       <c r="AF3" t="n">
         <v>1.33335208947736e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.03125</v>
       </c>
       <c r="AH3" t="n">
-        <v>234293.3879397035</v>
+        <v>327333.6891692777</v>
       </c>
     </row>
   </sheetData>
@@ -14550,28 +14550,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>185.9886782170081</v>
+        <v>260.4032631693051</v>
       </c>
       <c r="AB2" t="n">
-        <v>254.4779147777801</v>
+        <v>356.2952328494203</v>
       </c>
       <c r="AC2" t="n">
-        <v>230.1908997534595</v>
+        <v>322.2909158897709</v>
       </c>
       <c r="AD2" t="n">
-        <v>185988.6782170081</v>
+        <v>260403.2631693052</v>
       </c>
       <c r="AE2" t="n">
-        <v>254477.9147777802</v>
+        <v>356295.2328494203</v>
       </c>
       <c r="AF2" t="n">
         <v>1.488625166548906e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.13541666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>230190.8997534595</v>
+        <v>322290.9158897709</v>
       </c>
     </row>
   </sheetData>
@@ -14847,28 +14847,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>189.2465872325833</v>
+        <v>271.2387064945817</v>
       </c>
       <c r="AB2" t="n">
-        <v>258.9355296216898</v>
+        <v>371.1207644330858</v>
       </c>
       <c r="AC2" t="n">
-        <v>234.2230860929695</v>
+        <v>335.7015195468556</v>
       </c>
       <c r="AD2" t="n">
-        <v>189246.5872325833</v>
+        <v>271238.7064945817</v>
       </c>
       <c r="AE2" t="n">
-        <v>258935.5296216898</v>
+        <v>371120.7644330857</v>
       </c>
       <c r="AF2" t="n">
         <v>1.853129900755892e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.203125</v>
       </c>
       <c r="AH2" t="n">
-        <v>234223.0860929695</v>
+        <v>335701.5195468556</v>
       </c>
     </row>
   </sheetData>
@@ -15144,28 +15144,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>238.3116552539008</v>
+        <v>344.1022769495121</v>
       </c>
       <c r="AB2" t="n">
-        <v>326.0685202864541</v>
+        <v>470.8159160433809</v>
       </c>
       <c r="AC2" t="n">
-        <v>294.9489983504542</v>
+        <v>425.8819058104882</v>
       </c>
       <c r="AD2" t="n">
-        <v>238311.6552539008</v>
+        <v>344102.2769495121</v>
       </c>
       <c r="AE2" t="n">
-        <v>326068.5202864541</v>
+        <v>470815.9160433809</v>
       </c>
       <c r="AF2" t="n">
         <v>8.786344557402914e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.625</v>
       </c>
       <c r="AH2" t="n">
-        <v>294948.9983504543</v>
+        <v>425881.9058104882</v>
       </c>
     </row>
     <row r="3">
@@ -15250,28 +15250,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>211.3720996308621</v>
+        <v>297.8886965531149</v>
       </c>
       <c r="AB3" t="n">
-        <v>289.2086317937163</v>
+        <v>407.5844565457545</v>
       </c>
       <c r="AC3" t="n">
-        <v>261.6069658822732</v>
+        <v>368.6851680614046</v>
       </c>
       <c r="AD3" t="n">
-        <v>211372.0996308621</v>
+        <v>297888.6965531149</v>
       </c>
       <c r="AE3" t="n">
-        <v>289208.6317937163</v>
+        <v>407584.4565457545</v>
       </c>
       <c r="AF3" t="n">
         <v>9.956033766634439e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.203125</v>
       </c>
       <c r="AH3" t="n">
-        <v>261606.9658822732</v>
+        <v>368685.1680614046</v>
       </c>
     </row>
     <row r="4">
@@ -15356,28 +15356,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>197.9779370526468</v>
+        <v>284.4603685561187</v>
       </c>
       <c r="AB4" t="n">
-        <v>270.8821476454627</v>
+        <v>389.2112257642436</v>
       </c>
       <c r="AC4" t="n">
-        <v>245.029535659741</v>
+        <v>352.0654526386897</v>
       </c>
       <c r="AD4" t="n">
-        <v>197977.9370526468</v>
+        <v>284460.3685561187</v>
       </c>
       <c r="AE4" t="n">
-        <v>270882.1476454627</v>
+        <v>389211.2257642436</v>
       </c>
       <c r="AF4" t="n">
         <v>1.041974764782142e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.39583333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>245029.535659741</v>
+        <v>352065.4526386897</v>
       </c>
     </row>
     <row r="5">
@@ -15462,28 +15462,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>197.9635941871356</v>
+        <v>284.4460256906075</v>
       </c>
       <c r="AB5" t="n">
-        <v>270.8625231041077</v>
+        <v>389.1916012228887</v>
       </c>
       <c r="AC5" t="n">
-        <v>245.0117840570698</v>
+        <v>352.0477010360185</v>
       </c>
       <c r="AD5" t="n">
-        <v>197963.5941871356</v>
+        <v>284446.0256906076</v>
       </c>
       <c r="AE5" t="n">
-        <v>270862.5231041077</v>
+        <v>389191.6012228887</v>
       </c>
       <c r="AF5" t="n">
         <v>1.043498903157948e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17.36979166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>245011.7840570698</v>
+        <v>352047.7010360185</v>
       </c>
     </row>
   </sheetData>
@@ -15759,28 +15759,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>281.9709687012836</v>
+        <v>389.0374310349192</v>
       </c>
       <c r="AB2" t="n">
-        <v>385.8051190582877</v>
+        <v>532.2981762621223</v>
       </c>
       <c r="AC2" t="n">
-        <v>348.9844199762495</v>
+        <v>481.4963854048472</v>
       </c>
       <c r="AD2" t="n">
-        <v>281970.9687012836</v>
+        <v>389037.4310349192</v>
       </c>
       <c r="AE2" t="n">
-        <v>385805.1190582877</v>
+        <v>532298.1762621223</v>
       </c>
       <c r="AF2" t="n">
         <v>7.095756914817347e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.07291666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>348984.4199762495</v>
+        <v>481496.3854048472</v>
       </c>
     </row>
     <row r="3">
@@ -15865,28 +15865,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>230.3754688914381</v>
+        <v>327.637271594555</v>
       </c>
       <c r="AB3" t="n">
-        <v>315.209879985506</v>
+        <v>448.287769331958</v>
       </c>
       <c r="AC3" t="n">
-        <v>285.1266914396278</v>
+        <v>405.503813802751</v>
       </c>
       <c r="AD3" t="n">
-        <v>230375.4688914381</v>
+        <v>327637.271594555</v>
       </c>
       <c r="AE3" t="n">
-        <v>315209.879985506</v>
+        <v>448287.769331958</v>
       </c>
       <c r="AF3" t="n">
         <v>8.413787394523615e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.453125</v>
       </c>
       <c r="AH3" t="n">
-        <v>285126.6914396278</v>
+        <v>405503.813802751</v>
       </c>
     </row>
     <row r="4">
@@ -15971,28 +15971,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>216.9413581564886</v>
+        <v>314.2704806673097</v>
       </c>
       <c r="AB4" t="n">
-        <v>296.8287370068203</v>
+        <v>429.9987362841044</v>
       </c>
       <c r="AC4" t="n">
-        <v>268.4998189487259</v>
+        <v>388.9602604001655</v>
       </c>
       <c r="AD4" t="n">
-        <v>216941.3581564886</v>
+        <v>314270.4806673097</v>
       </c>
       <c r="AE4" t="n">
-        <v>296828.7370068203</v>
+        <v>429998.7362841044</v>
       </c>
       <c r="AF4" t="n">
         <v>8.834369857822222e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.54166666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>268499.8189487259</v>
+        <v>388960.2604001655</v>
       </c>
     </row>
     <row r="5">
@@ -16077,28 +16077,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>204.0495020229375</v>
+        <v>301.3444591149776</v>
       </c>
       <c r="AB5" t="n">
-        <v>279.1895306963522</v>
+        <v>412.3127833403795</v>
       </c>
       <c r="AC5" t="n">
-        <v>252.5440737317417</v>
+        <v>372.9622299829987</v>
       </c>
       <c r="AD5" t="n">
-        <v>204049.5020229375</v>
+        <v>301344.4591149776</v>
       </c>
       <c r="AE5" t="n">
-        <v>279189.5306963522</v>
+        <v>412312.7833403795</v>
       </c>
       <c r="AF5" t="n">
         <v>9.136726389451964e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17.91666666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>252544.0737317417</v>
+        <v>372962.2299829987</v>
       </c>
     </row>
     <row r="6">
@@ -16183,28 +16183,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>203.2157364266658</v>
+        <v>290.8426955633076</v>
       </c>
       <c r="AB6" t="n">
-        <v>278.0487358243918</v>
+        <v>397.9438071438751</v>
       </c>
       <c r="AC6" t="n">
-        <v>251.5121547212451</v>
+        <v>359.9646087077039</v>
       </c>
       <c r="AD6" t="n">
-        <v>203215.7364266658</v>
+        <v>290842.6955633076</v>
       </c>
       <c r="AE6" t="n">
-        <v>278048.7358243918</v>
+        <v>397943.807143875</v>
       </c>
       <c r="AF6" t="n">
         <v>9.229483436904931e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>18</v>
+        <v>17.734375</v>
       </c>
       <c r="AH6" t="n">
-        <v>251512.1547212451</v>
+        <v>359964.6087077039</v>
       </c>
     </row>
   </sheetData>
@@ -16480,28 +16480,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>195.7924766216817</v>
+        <v>286.0891701990556</v>
       </c>
       <c r="AB2" t="n">
-        <v>267.8919042681082</v>
+        <v>391.439824029767</v>
       </c>
       <c r="AC2" t="n">
-        <v>242.3246769134874</v>
+        <v>354.0813566136087</v>
       </c>
       <c r="AD2" t="n">
-        <v>195792.4766216817</v>
+        <v>286089.1701990556</v>
       </c>
       <c r="AE2" t="n">
-        <v>267891.9042681082</v>
+        <v>391439.824029767</v>
       </c>
       <c r="AF2" t="n">
         <v>2.011375833020902e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.765625</v>
       </c>
       <c r="AH2" t="n">
-        <v>242324.6769134874</v>
+        <v>354081.3566136087</v>
       </c>
     </row>
   </sheetData>
@@ -16777,28 +16777,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>204.6174655213524</v>
+        <v>289.5381164582813</v>
       </c>
       <c r="AB2" t="n">
-        <v>279.9666434116642</v>
+        <v>396.1588244584099</v>
       </c>
       <c r="AC2" t="n">
-        <v>253.2470199001891</v>
+        <v>358.3499822645006</v>
       </c>
       <c r="AD2" t="n">
-        <v>204617.4655213524</v>
+        <v>289538.1164582813</v>
       </c>
       <c r="AE2" t="n">
-        <v>279966.6434116642</v>
+        <v>396158.8244584099</v>
       </c>
       <c r="AF2" t="n">
         <v>1.17790000321001e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.38541666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>253247.0199001891</v>
+        <v>358349.9822645006</v>
       </c>
     </row>
     <row r="3">
@@ -16883,28 +16883,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>191.134437384289</v>
+        <v>276.0209229024368</v>
       </c>
       <c r="AB3" t="n">
-        <v>261.5185694853228</v>
+        <v>377.6640038988111</v>
       </c>
       <c r="AC3" t="n">
-        <v>236.5596042573375</v>
+        <v>341.6202814214664</v>
       </c>
       <c r="AD3" t="n">
-        <v>191134.437384289</v>
+        <v>276020.9229024368</v>
       </c>
       <c r="AE3" t="n">
-        <v>261518.5694853228</v>
+        <v>377664.0038988111</v>
       </c>
       <c r="AF3" t="n">
         <v>1.262852592393726e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.16145833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>236559.6042573375</v>
+        <v>341620.2814214664</v>
       </c>
     </row>
   </sheetData>
@@ -17180,28 +17180,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>235.0802222064738</v>
+        <v>330.5623818899942</v>
       </c>
       <c r="AB2" t="n">
-        <v>321.6471310302022</v>
+        <v>452.2900342849366</v>
       </c>
       <c r="AC2" t="n">
-        <v>290.9495802793588</v>
+        <v>409.1241082058314</v>
       </c>
       <c r="AD2" t="n">
-        <v>235080.2222064738</v>
+        <v>330562.3818899943</v>
       </c>
       <c r="AE2" t="n">
-        <v>321647.1310302021</v>
+        <v>452290.0342849366</v>
       </c>
       <c r="AF2" t="n">
         <v>9.460885511702194e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.390625</v>
       </c>
       <c r="AH2" t="n">
-        <v>290949.5802793588</v>
+        <v>409124.1082058314</v>
       </c>
     </row>
     <row r="3">
@@ -17286,28 +17286,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>196.5037720909955</v>
+        <v>282.4983036330976</v>
       </c>
       <c r="AB3" t="n">
-        <v>268.8651301093641</v>
+        <v>386.5266419763709</v>
       </c>
       <c r="AC3" t="n">
-        <v>243.2050194463852</v>
+        <v>349.6370817596945</v>
       </c>
       <c r="AD3" t="n">
-        <v>196503.7720909955</v>
+        <v>282498.3036330976</v>
       </c>
       <c r="AE3" t="n">
-        <v>268865.1301093642</v>
+        <v>386526.6419763709</v>
       </c>
       <c r="AF3" t="n">
         <v>1.100903849290413e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.52604166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>243205.0194463852</v>
+        <v>349637.0817596945</v>
       </c>
     </row>
     <row r="4">
@@ -17392,28 +17392,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>195.173252547113</v>
+        <v>281.0662988627298</v>
       </c>
       <c r="AB4" t="n">
-        <v>267.0446545710456</v>
+        <v>384.5673098739619</v>
       </c>
       <c r="AC4" t="n">
-        <v>241.5582875383896</v>
+        <v>347.8647455631996</v>
       </c>
       <c r="AD4" t="n">
-        <v>195173.252547113</v>
+        <v>281066.2988627298</v>
       </c>
       <c r="AE4" t="n">
-        <v>267044.6545710455</v>
+        <v>384567.3098739619</v>
       </c>
       <c r="AF4" t="n">
         <v>1.121744370191208e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.1875</v>
       </c>
       <c r="AH4" t="n">
-        <v>241558.2875383896</v>
+        <v>347864.7455631996</v>
       </c>
     </row>
   </sheetData>
